--- a/stat_viz_triennio.xlsx
+++ b/stat_viz_triennio.xlsx
@@ -7,47 +7,48 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="perc" sheetId="1" r:id="rId1"/>
-    <sheet name="if" sheetId="2" r:id="rId2"/>
-    <sheet name="altmetric" sheetId="3" r:id="rId3"/>
-    <sheet name="cima_index" sheetId="4" r:id="rId4"/>
-    <sheet name="cit" sheetId="5" r:id="rId5"/>
-    <sheet name="reccit" sheetId="6" r:id="rId6"/>
-    <sheet name="fcr" sheetId="7" r:id="rId7"/>
-    <sheet name="rcr" sheetId="8" r:id="rId8"/>
+    <sheet name="num" sheetId="1" r:id="rId1"/>
+    <sheet name="perc" sheetId="2" r:id="rId2"/>
+    <sheet name="if" sheetId="3" r:id="rId3"/>
+    <sheet name="altmetric" sheetId="4" r:id="rId4"/>
+    <sheet name="cima_index" sheetId="5" r:id="rId5"/>
+    <sheet name="cit" sheetId="6" r:id="rId6"/>
+    <sheet name="reccit" sheetId="7" r:id="rId7"/>
+    <sheet name="fcr" sheetId="8" r:id="rId8"/>
+    <sheet name="rcr" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="9">
   <si>
-    <t>all</t>
+    <t>TUTTI GLI AUTORI</t>
   </si>
   <si>
-    <t>italy</t>
+    <t>ITALIA</t>
   </si>
   <si>
-    <t>fism</t>
+    <t>FISM</t>
   </si>
   <si>
-    <t>any</t>
+    <t>tutte le pubblicazioni</t>
   </si>
   <si>
-    <t>prevenzione_primaria</t>
+    <t>prevenzione primaria</t>
   </si>
   <si>
-    <t>prevenzione_secondaria</t>
+    <t>prevenzione secondaria</t>
   </si>
   <si>
-    <t>prevenzione_terziaria</t>
+    <t>prevenzione terziaria</t>
   </si>
   <si>
     <t>covid</t>
   </si>
   <si>
-    <t>altre_malattie</t>
+    <t>altre malattie</t>
   </si>
 </sst>
 </file>
@@ -427,13 +428,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>10767</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>1400</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -441,13 +442,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>11.65598588279001</v>
+        <v>1021</v>
       </c>
       <c r="C3">
-        <v>12.5</v>
+        <v>132</v>
       </c>
       <c r="D3">
-        <v>15.78947368421053</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -455,13 +456,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>9.036871923469862</v>
+        <v>973</v>
       </c>
       <c r="C4">
-        <v>12.28571428571429</v>
+        <v>172</v>
       </c>
       <c r="D4">
-        <v>17.98245614035088</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -469,13 +470,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>14.66518064456209</v>
+        <v>1580</v>
       </c>
       <c r="C5">
-        <v>13.64285714285714</v>
+        <v>191</v>
       </c>
       <c r="D5">
-        <v>20.6140350877193</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -483,13 +484,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>1.950404012259683</v>
+        <v>543</v>
       </c>
       <c r="C6">
-        <v>2.642857142857143</v>
+        <v>117</v>
       </c>
       <c r="D6">
-        <v>3.508771929824561</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -497,13 +498,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>3.129934057769109</v>
+        <v>337</v>
       </c>
       <c r="C7">
-        <v>2.642857142857143</v>
+        <v>37</v>
       </c>
       <c r="D7">
-        <v>2.192982456140351</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -535,13 +536,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>6.040066644113667</v>
+        <v>100</v>
       </c>
       <c r="C2">
-        <v>6.149315499606608</v>
+        <v>100</v>
       </c>
       <c r="D2">
-        <v>8.419077981651375</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -549,13 +550,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>6.450697123519459</v>
+        <v>9.482678554843503</v>
       </c>
       <c r="C3">
-        <v>6.369087719298246</v>
+        <v>9.428571428571429</v>
       </c>
       <c r="D3">
-        <v>9.414285714285716</v>
+        <v>10.96491228070175</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -563,13 +564,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>7.320967069154775</v>
+        <v>9.036871923469862</v>
       </c>
       <c r="C4">
-        <v>9.149571428571429</v>
+        <v>12.28571428571429</v>
       </c>
       <c r="D4">
-        <v>13.95365853658537</v>
+        <v>17.98245614035088</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -577,13 +578,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>4.375904697072839</v>
+        <v>14.67446828271571</v>
       </c>
       <c r="C5">
-        <v>4.963585635359116</v>
+        <v>13.64285714285714</v>
       </c>
       <c r="D5">
-        <v>6.106744680851063</v>
+        <v>20.6140350877193</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -591,13 +592,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>6.311881188118812</v>
+        <v>5.043187517414322</v>
       </c>
       <c r="C6">
-        <v>5.743243243243244</v>
+        <v>8.357142857142858</v>
       </c>
       <c r="D6">
-        <v>6.3</v>
+        <v>10.96491228070175</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -605,13 +606,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>5.564712460063898</v>
+        <v>3.129934057769109</v>
       </c>
       <c r="C7">
-        <v>6.597142857142857</v>
+        <v>2.642857142857143</v>
       </c>
       <c r="D7">
-        <v>5.475</v>
+        <v>2.192982456140351</v>
       </c>
     </row>
   </sheetData>
@@ -643,13 +644,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>14.06434115776676</v>
+        <v>6.040066644113667</v>
       </c>
       <c r="C2">
-        <v>13.45746962115797</v>
+        <v>6.149315499606608</v>
       </c>
       <c r="D2">
-        <v>31.02631578947368</v>
+        <v>8.419077981651375</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -657,13 +658,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>34.07636655948553</v>
+        <v>6.422116788321167</v>
       </c>
       <c r="C3">
-        <v>14.42285714285714</v>
+        <v>6.506359374999999</v>
       </c>
       <c r="D3">
-        <v>17.58333333333333</v>
+        <v>10.64583333333333</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -671,13 +672,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>19.76421923474664</v>
+        <v>7.320967069154775</v>
       </c>
       <c r="C4">
-        <v>38.48255813953488</v>
+        <v>9.149571428571429</v>
       </c>
       <c r="D4">
-        <v>106.4390243902439</v>
+        <v>13.95365853658537</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -685,13 +686,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>7.95022335673261</v>
+        <v>4.375853061224491</v>
       </c>
       <c r="C5">
-        <v>8.705263157894738</v>
+        <v>4.963585635359116</v>
       </c>
       <c r="D5">
-        <v>10.06382978723404</v>
+        <v>6.106744680851063</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -699,13 +700,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>37.95693779904306</v>
+        <v>5.57431906614786</v>
       </c>
       <c r="C6">
-        <v>13.81081081081081</v>
+        <v>5.221290598290597</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>6.056</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -713,13 +714,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>21.55988023952096</v>
+        <v>5.564712460063898</v>
       </c>
       <c r="C7">
-        <v>13.61111111111111</v>
+        <v>6.597142857142857</v>
       </c>
       <c r="D7">
-        <v>5.4</v>
+        <v>5.475</v>
       </c>
     </row>
   </sheetData>
@@ -751,13 +752,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>1.575926177228932</v>
+        <v>14.06434115776676</v>
       </c>
       <c r="C2">
-        <v>2.086519114688129</v>
+        <v>13.45746962115797</v>
       </c>
       <c r="D2">
-        <v>2.352941176470588</v>
+        <v>31.02631578947368</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -765,13 +766,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>1.603139013452915</v>
+        <v>33.59050445103858</v>
       </c>
       <c r="C3">
-        <v>2.052238805970149</v>
+        <v>15.71969696969697</v>
       </c>
       <c r="D3">
-        <v>2.275862068965517</v>
+        <v>20.64</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -779,13 +780,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>1.769911504424779</v>
+        <v>19.76421923474664</v>
       </c>
       <c r="C4">
-        <v>2.384</v>
+        <v>38.48255813953488</v>
       </c>
       <c r="D4">
-        <v>2.966666666666667</v>
+        <v>106.4390243902439</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -793,13 +794,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>1.470691163604549</v>
+        <v>7.948979591836735</v>
       </c>
       <c r="C5">
-        <v>2.13768115942029</v>
+        <v>8.705263157894738</v>
       </c>
       <c r="D5">
-        <v>2.696969696969697</v>
+        <v>10.06382978723404</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -807,13 +808,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>1.623287671232877</v>
+        <v>24.42329020332717</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>11.35042735042735</v>
       </c>
       <c r="D6">
-        <v>2.5</v>
+        <v>16.04</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -821,13 +822,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>1.521951219512195</v>
+        <v>21.55988023952096</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>13.61111111111111</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>5.4</v>
       </c>
     </row>
   </sheetData>
@@ -859,13 +860,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>7.839147105583092</v>
+        <v>1.575926177228932</v>
       </c>
       <c r="C2">
-        <v>10.56540385989993</v>
+        <v>2.086519114688129</v>
       </c>
       <c r="D2">
-        <v>14.47368421052632</v>
+        <v>2.352941176470588</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -873,13 +874,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>13.01768488745981</v>
+        <v>1.589211618257261</v>
       </c>
       <c r="C3">
-        <v>17.65714285714286</v>
+        <v>1.99009900990099</v>
       </c>
       <c r="D3">
-        <v>25.77777777777778</v>
+        <v>2.047619047619047</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -887,13 +888,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>11.19441571871768</v>
+        <v>1.769911504424779</v>
       </c>
       <c r="C4">
-        <v>17.47093023255814</v>
+        <v>2.384</v>
       </c>
       <c r="D4">
-        <v>12.78048780487805</v>
+        <v>2.966666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -901,13 +902,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>7.263560944479898</v>
+        <v>1.470691163604549</v>
       </c>
       <c r="C5">
-        <v>9.726315789473684</v>
+        <v>2.13768115942029</v>
       </c>
       <c r="D5">
-        <v>11.78723404255319</v>
+        <v>2.696969696969697</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -915,13 +916,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>20.09569377990431</v>
+        <v>1.638613861386139</v>
       </c>
       <c r="C6">
-        <v>22.32432432432432</v>
+        <v>2.293478260869565</v>
       </c>
       <c r="D6">
-        <v>37.75</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -929,13 +930,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>9.482035928143713</v>
+        <v>1.521951219512195</v>
       </c>
       <c r="C7">
-        <v>13.86111111111111</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -967,13 +968,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>7.133358271766577</v>
+        <v>7.839147105583092</v>
       </c>
       <c r="C2">
-        <v>9.441029306647605</v>
+        <v>10.56540385989993</v>
       </c>
       <c r="D2">
-        <v>12.67105263157895</v>
+        <v>14.47368421052632</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -981,13 +982,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>11.7564308681672</v>
+        <v>10.94658753709199</v>
       </c>
       <c r="C3">
-        <v>15.64571428571429</v>
+        <v>14.79545454545454</v>
       </c>
       <c r="D3">
-        <v>23.80555555555556</v>
+        <v>21.08</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -995,13 +996,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>10.22854188210962</v>
+        <v>11.19441571871768</v>
       </c>
       <c r="C4">
-        <v>16.04651162790698</v>
+        <v>17.47093023255814</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>12.78048780487805</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1009,13 +1010,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>6.486917677089981</v>
+        <v>7.260204081632653</v>
       </c>
       <c r="C5">
-        <v>8.58421052631579</v>
+        <v>9.726315789473684</v>
       </c>
       <c r="D5">
-        <v>10.06382978723404</v>
+        <v>11.78723404255319</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1023,13 +1024,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>17.98564593301435</v>
+        <v>16.75415896487985</v>
       </c>
       <c r="C6">
-        <v>20.24324324324324</v>
+        <v>21.90598290598291</v>
       </c>
       <c r="D6">
-        <v>34.625</v>
+        <v>41.68</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1037,13 +1038,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>8.865269461077844</v>
+        <v>9.482035928143713</v>
       </c>
       <c r="C7">
-        <v>12.91666666666667</v>
+        <v>13.86111111111111</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1075,13 +1076,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>4.756275298391282</v>
+        <v>7.133358271766577</v>
       </c>
       <c r="C2">
-        <v>6.806138996138996</v>
+        <v>9.441029306647605</v>
       </c>
       <c r="D2">
-        <v>7.931085714285715</v>
+        <v>12.67105263157895</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1089,13 +1090,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>7.219391675560298</v>
+        <v>10.07715133531157</v>
       </c>
       <c r="C3">
-        <v>9.775539568345325</v>
+        <v>13.12878787878788</v>
       </c>
       <c r="D3">
-        <v>12.84892857142857</v>
+        <v>19.36</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1103,13 +1104,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>7.284671232876713</v>
+        <v>10.22854188210962</v>
       </c>
       <c r="C4">
-        <v>12.22378571428571</v>
+        <v>16.04651162790698</v>
       </c>
       <c r="D4">
-        <v>8.577272727272728</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1117,13 +1118,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>4.427654830718414</v>
+        <v>6.48405612244898</v>
       </c>
       <c r="C5">
-        <v>6.140645161290323</v>
+        <v>8.58421052631579</v>
       </c>
       <c r="D5">
-        <v>7.556111111111111</v>
+        <v>10.06382978723404</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1131,13 +1132,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>10.26839743589744</v>
+        <v>13.95933456561922</v>
       </c>
       <c r="C6">
-        <v>10.31137931034483</v>
+        <v>17.68376068376068</v>
       </c>
       <c r="D6">
-        <v>15.8</v>
+        <v>31.24</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1145,13 +1146,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>5.545022421524664</v>
+        <v>8.865269461077844</v>
       </c>
       <c r="C7">
-        <v>7.683225806451613</v>
+        <v>12.91666666666667</v>
       </c>
       <c r="D7">
-        <v>3.79</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1183,13 +1184,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>1.631124942369756</v>
+        <v>4.756275298391282</v>
       </c>
       <c r="C2">
-        <v>2.076743455497382</v>
+        <v>6.806138996138996</v>
       </c>
       <c r="D2">
-        <v>2.387987804878049</v>
+        <v>7.931085714285715</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1197,13 +1198,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>2.213061224489796</v>
+        <v>6.217189973614776</v>
       </c>
       <c r="C3">
-        <v>2.666541353383459</v>
+        <v>8.573076923076924</v>
       </c>
       <c r="D3">
-        <v>3.036785714285714</v>
+        <v>10.2555</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1211,13 +1212,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>2.091850079744817</v>
+        <v>7.284671232876713</v>
       </c>
       <c r="C4">
-        <v>3.197404580152672</v>
+        <v>12.22378571428571</v>
       </c>
       <c r="D4">
-        <v>2.246451612903226</v>
+        <v>8.577272727272728</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1225,13 +1226,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>1.760020120724346</v>
+        <v>4.427654830718414</v>
       </c>
       <c r="C5">
-        <v>2.283059701492538</v>
+        <v>6.140645161290323</v>
       </c>
       <c r="D5">
-        <v>2.9146875</v>
+        <v>7.556111111111111</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1239,13 +1240,121 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>2.925616438356164</v>
+        <v>9.176384976525821</v>
       </c>
       <c r="C6">
-        <v>3.137037037037037</v>
+        <v>11.96726315789474</v>
       </c>
       <c r="D6">
-        <v>3.955</v>
+        <v>23.533</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>5.545022421524664</v>
+      </c>
+      <c r="C7">
+        <v>7.683225806451613</v>
+      </c>
+      <c r="D7">
+        <v>3.79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1.631124942369756</v>
+      </c>
+      <c r="C2">
+        <v>2.076743455497382</v>
+      </c>
+      <c r="D2">
+        <v>2.387987804878049</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>2.011741741741742</v>
+      </c>
+      <c r="C3">
+        <v>2.4452</v>
+      </c>
+      <c r="D3">
+        <v>2.6535</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>2.091850079744817</v>
+      </c>
+      <c r="C4">
+        <v>3.197404580152672</v>
+      </c>
+      <c r="D4">
+        <v>2.246451612903226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1.760020120724346</v>
+      </c>
+      <c r="C5">
+        <v>2.283059701492538</v>
+      </c>
+      <c r="D5">
+        <v>2.9146875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>2.560963541666667</v>
+      </c>
+      <c r="C6">
+        <v>3.262613636363636</v>
+      </c>
+      <c r="D6">
+        <v>5.193</v>
       </c>
     </row>
     <row r="7" spans="1:4">
